--- a/results/2014年第4季.xlsx
+++ b/results/2014年第4季.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,6 +739,7586 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>155</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>399,422</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>333,603</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>43,298</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>53,047</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>84,351</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-161,525</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>82,454</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>481,768</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1,370,957</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>3,174,354</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6,418,031</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2,247,433</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1,596,900</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1,447,650</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1,609,563</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-745,410</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>54,519</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1,025,533</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>6,220,538</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>7,983,767</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>33,754,770</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7,258,161</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>693,594</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67,221</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-174,020</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1,025,906</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-514,031</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>-147,197</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>708,117</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>19,303,978</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-0.81</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>-0.46</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>15,243,561</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>40,887,116</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>-0.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8,767,740</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1,304,319</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>663,368</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>769,087</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>996,923</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-273,806</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-391,719</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>971,883</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>6,291,065</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1,634,020</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>22,808,545</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>265</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>237,157</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>128,880</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84,532</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>81,299</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>83,540</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1,652</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-45,000</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>83,357</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>182,125</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>12,505</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1,042,791</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>160.5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>19,032,309</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2,196,764</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1,245,095</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1,060,001</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>206,344</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-538,548</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-571,857</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-757,806</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>25,285,515</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>6,273,454</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>45,753,089</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>51</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-50,830</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>38,493</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-11,149</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-15,179</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-11,265</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>79,867</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>11,531</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2,014,394</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2,712,862</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,010,741</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>676,652</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>557,144</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1,703,558</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-485,710</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-519,665</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1,421,134</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>5,876,258</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>11,652,510</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>21,815,908</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1,265,361</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>162,261</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>12,238</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>33,357</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>187,295</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-88,740</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-8,204</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>154,096</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2,083,164</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>804,462</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>3,344,338</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4,499,759</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,167,604</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>843,678</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>859,173</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2,432,158</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-750,291</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-724,789</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2,004,035</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>16,129,223</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>12,903,204</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>40,092,613</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4,519,002</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>584,604</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>296,625</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>237,935</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>219,544</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-109,572</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-112,681</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>82,519</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>4,018,506</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2,928,559</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>9,375,932</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>7,366,012</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-391,464</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-921,612</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1,276,225</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>35,614</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-29,042</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>3,792,980</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-312,226</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>24,009,124</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>16,980,407</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>77,428,415</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>379,532</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>80,215</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>12,113</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>35,291</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-13,873</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>43,455</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-21,457</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-16,034</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>624,983</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>562,046</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1,467,514</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>197.5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>13,624,675</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4,493,547</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>163,605</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>215,870</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-1,278,153</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-476,600</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-113,160</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>-1,789,225</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>18,172,545</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>8,240,906</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>23,112,049</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>501,696</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>108,497</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>13,528</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8,152</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>7,035</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-17,932</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>-46,965</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-8,080</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1,657,098</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1,365,174</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2,807,013</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1,551,284</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>521,713</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>364,156</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>359,628</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1,112,234</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-417,144</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-736,050</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>698,936</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>4,573,184</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>9,422,848</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>13,847,564</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>5,518,920</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>717,434</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>12,755,901</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>494,596</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>151,287</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>32,430</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>40,621</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-18,031</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>295,682</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>99,310</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>779,335</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1,437,622</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>347,766</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>299,569</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>289,240</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>548,435</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-910,482</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-26,888</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>-347,671</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>4,173,026</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>6,591,778</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>8,827,269</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>28.25</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>365,021</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>65,381</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>-7,282</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>21,970</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>179,851</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-35,080</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>41,327</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>147,541</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>804,666</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>680,410</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>1,970,786</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>116,054</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>274,055</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>789,918</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>71,420</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>41,712</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-43,955</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-40,869</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1,240</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-18,516</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-2,485</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-4,047</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>113,262</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-9.03</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>-7.15</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>139,037</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>545,806</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-0.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>32.95</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1,034,902</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>300,816</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>246,431</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>232,340</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>360,065</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-171,376</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-5,033</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>193,291</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>675,258</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1,081,345</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>2,896,598</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>130</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1,199,274</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>507,474</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>118,259</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>115,928</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>286,153</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-446,974</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>442,599</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>-34,125</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2,644,554</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2,167,777</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>6,387,417</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>6,245,069</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>446,435</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85,997</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>73,868</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-21,468</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-6,650</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>196,738</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>-38,257</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>3,728,571</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>3,846,372</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>7,991,964</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>6,852,629</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>237,293</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-286,856</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-111,769</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2,444,521</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-3,169</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>-2,669,898</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2,410,219</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>12,672,742</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>-1.30</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>-0.21</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>4,620,072</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>21,189,114</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>-0.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>33,717</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>21,579</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>740,015</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>7,078,368</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>428,738</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>255,434</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>213,769</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-2,592,144</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>780,083</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2,086,354</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>-3,112,831</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>16,047,306</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>11,126,753</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>29,805,390</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1,015,495</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>312,679</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>194,040</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>179,757</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>216,540</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-14,415</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-19,901</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>214,443</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>579,489</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>922,463</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>2,641,206</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>139</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>786,595</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>206,252</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91,729</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>101,845</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>467,109</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-14,184</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-3,705</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>459,341</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1,065,664</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>219,457</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2,309,242</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>8,283,430</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>849,699</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>-430,764</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-97,528</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>457,987</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-269,745</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>151,863</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>144,556</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>23,966,053</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>-0.60</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>12,749,930</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>40,235,724</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>162,642</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7,502</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>-1,361</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-9,523</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-55,642</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>13,960</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>-15,433</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>-56,569</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>255,013</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>-0.36</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>-0.33</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>374,650</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2,868,059</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>104,517</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>7,205</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>363,782</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>89,665,123</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>13,325,253</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>9,531,444</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7,103,769</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>13,841,484</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-5,750,425</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-13,121,453</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>8,334,046</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>348,049,365</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>459,313,969</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>682,737,236</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1,792,636</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>-44,743</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-102,895</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-156,841</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-181,370</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-622,747</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>341,608</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-239,257</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>9,589,851</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-3.66</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>-0.81</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>9,979,181</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>13,793,380</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>-0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>993,793</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>20,207</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1,626</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-1,986</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>152,432</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-5,435</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>-183,280</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>146,995</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1,910,590</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>994,481</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>5,962,923</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>450,354</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>273,501</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84,397</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>70,046</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>73,131</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-22,970</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-209,300</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>48,167</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>734,299</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>678,566</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>1,628,276</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>48.25</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>210,564</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>67,309</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>40,523</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>33,887</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-505,215</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-230</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>423,734</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>-505,215</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>3,523,828</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>29,377</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>5,891,224</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>9</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>265,240</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>34,690</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>-3,687</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-865</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-12,220</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-2,431</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-25,631</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>-14,373</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>510,147</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>435,943</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1,275,785</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>364,747</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>60,445</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>13,362</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>13,576</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>58,213</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-4,025</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>125,766</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>54,978</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>442,794</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>287,405</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1,774,716</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1,329,040</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>906,468</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>2,082,032</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>23.45</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>828,203</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>-41,590</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>-147,808</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-163,540</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-270,084</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>11,936</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>98,963</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>-297,127</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>2,205,829</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>-6.27</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>-3.39</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>1,296,044</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>4,802,593</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>-1.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>27.95</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>462,086</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>75,788</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>15,168</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>15,308</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>102,850</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-112,730</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>-28,377</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>-20,508</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1,321,298</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>684,943</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>2,396,056</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>28.05</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>4,704,882</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1,050,739</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>-556,865</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-666,111</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-386,560</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-754,167</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1,157,693</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>-375,048</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>28,144,994</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>-5.85</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>-1.56</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>14,472,361</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>39,190,068</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>-1.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>773,844</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>173,378</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>-78,328</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-59,368</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>79,166</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-182,116</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-157,824</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>-54,663</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>7,454,547</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>-0.95</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>4,991,736</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>13,673,828</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>50</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>97,913,785</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>28,129,560</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2,364,859</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2,767,698</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>5,782,522</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-467,961</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-1,816,367</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>-986,306</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>250,142,176</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>163,982,241</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>399,743,719</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>3,491,970</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>-217,080</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-743,532</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-1,111,492</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>172,479</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>-111,418</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-400,694</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>-5,509</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>13,346,448</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>-4.85</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>-2.82</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>21,015,739</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>35,799,980</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>-0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>4,207,964</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>198,628</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-305,550</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-356,725</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>1,146,038</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-303,252</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-133,730</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>1,037,869</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>11,450,170</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>-1.27</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>-0.74</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>21,910,267</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>39,389,487</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>114,947,008</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>18,389,044</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>11,534,100</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>11,154,352</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>38,763,441</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-5,653,024</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2,354,920</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>32,822,787</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>253,345,119</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>233,609,843</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>482,516,555</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>74</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>12,409,114</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6,025,604</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>5,153,078</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8,574,038</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>7,519,071</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-1,226,427</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-3,234,408</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>6,268,739</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>62,915,685</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>23.19</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>51,175,927</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>104,554,597</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1,406,006</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>328,588</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>226,126</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>316,162</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>117,170</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>-65,018</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>74,941</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>115,352</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>9,814,691</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>3,045,846</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>11,532,117</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1,500,104,663</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>109,080,616</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>62,981,365</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>57,401,901</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>62,243,702</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>47,021,522</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>12,471,222</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>54,450,017</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1,478,037,947</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>358,868,558</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>2,462,714,749</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>24.35</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>4,983,393</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>323,219</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>126,548</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>111,092</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-674,523</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>-315,182</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>376,359</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>-776,708</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>11,072,429</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>1,522,341</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>20,271,942</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>13,591,078</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6,919,149</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1,558,343</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>841,971</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>8,534,823</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-569,188</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>-1,876,390</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>8,123,174</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>72,173,474</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>47,426,385</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>111,619,688</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1,989,870</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>871,147</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>423,891</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4,039,897</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-358,619</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>171,582</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-264,547</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>-457,023</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>16,337,186</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>3,260,115</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>129,758,076</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>200,648</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>32,834</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>16,161</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>28,802</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>5,541</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-460</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>5,031</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>180,622</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>419,319</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2,435,477</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>30</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>10,284,467</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2,041,622</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>641,728</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>620,433</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>944,596</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>-819,359</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>-857,994</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>328,047</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>25,270,445</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>13,894,161</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>47,264,910</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>30,586,775</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9,017,045</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>4,922,951</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4,332,452</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>6,033,508</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-1,569,756</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-3,859,136</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>3,356,936</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>81,313,342</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>109,430,271</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>169,870,367</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>59,633,861</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>17,749,021</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>9,405,242</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8,287,517</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>28,935,857</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-9,160,769</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-4,407,487</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>17,348,278</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>77,195,985</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>302,650,343</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>446,709,832</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>6,279,866</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>894,089</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>170,851</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>254,948</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>1,268,607</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>3,030,711</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-3,458,822</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>1,203,286</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>7,042,424</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>3,335,529</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>16,725,522</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>153,666</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>29,441</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>-70,205</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>732</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>376,875</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>-1,167,413</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>-95,579</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>376,875</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>10,431,981</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>17,491,029</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>194,028,450</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>-16,237,836</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>-18,644,455</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>-13,000,666</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>28,036,293</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-1,979,657</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-21,755,922</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>26,036,904</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>233,489,178</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>-5.37</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>-2.54</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>145,361,509</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>473,045,156</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>-1.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1,371,166</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>386,931</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>16,661</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>126,822</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>61,456</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>90,012</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>-184,911</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2,637</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>4,826,309</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>4,297,122</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>10,309,861</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>660,898</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>324,342</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>-318,194</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>-257,061</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>-163,800</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-4,997,077</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>5,043,509</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>-241,371</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>7,459,152</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>-3.18</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>-1.93</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>1,992,796</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>16,270,084</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>-0.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>34.45</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>5,544,351</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1,212,076</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>241,908</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>38,009</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>841,539</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-1,112,529</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>233,216</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>-199,200</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>16,633,207</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>16,925,915</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>34,596,197</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>313</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>6,789,513</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1,014,384</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>188,717</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2,604,605</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>539,334</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>1,646,147</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>440,526</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>9,576,035</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1,758,753</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>36,506,547</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>36.45</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1,109,537</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>332,612</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>200,392</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>149,270</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>381,061</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-192,285</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-166,203</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>172,338</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>3,900,324</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>5,183,272</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>8,643,553</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>37,186,838</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1,505,895</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1,728,923</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1,094,234</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>5,177,764</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>625,909</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>-4,369,623</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>4,883,649</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>124,061,516</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>99,524,289</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>188,926,359</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1,223,752</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>139,481</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>79,520</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>91,576</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>395,409</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-714,772</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>519,766</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>-439,898</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>22,366,765</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>28,723,685</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>31,631,494</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>30.55</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>59,286,128</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>10,943,484</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>987,538</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2,594,953</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>4,655,886</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-8,270,345</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>922,754</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>-2,046,514</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>233,285,536</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>139,055,972</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>496,604,290</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>323,037</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>19,555</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>3,749</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>26,298</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-28,812</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-324,828</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>347,276</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>-41,416</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1,667,879</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1,780,662</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>4,840,308</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>561,807</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>168,887</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>73,137</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>55,657</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>77,345</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-7,895</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-16,184</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>71,837</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>316,425</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>614,252</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>1,715,035</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>37,235,290</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>10,185,685</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>4,532,439</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4,463,717</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>18,836,428</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-16,789,702</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>428,754</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>2,628,076</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>88,236,797</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>166,690,243</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>313,245,648</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2,410,497</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>448,635</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>225,727</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>218,357</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>555,627</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-179,854</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-152,914</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>367,058</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>5,519,262</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>4,534,587</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>10,470,068</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>465,837</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>84,898</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>5,955</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>10,940</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>128,718</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-38,080</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-45,988</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>61,854</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>339,374</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>1,330,605</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>4,222,987</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>4,227,984</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1,199,617</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>698,728</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>527,243</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2,282,525</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-1,569,372</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-67,932</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>619,431</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>16,763,502</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>24,009,814</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>39,722,358</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>84,736,435</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2,958,335</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>970,498</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1,446,023</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>1,527,417</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-456,100</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>539,139</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>1,257,288</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>90,478,676</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>6,737,367</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>136,687,337</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>3,731,964</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>383,929</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>205,717</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>-287,975</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-53,534</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-1,697,505</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>3,377</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>-1,481,451</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>5,863,128</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>-6.20</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>-2.78</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>3,758,679</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>10,366,329</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>-1.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>10,122,523</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>928,818</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>347,893</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>375,896</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>206,460</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>32,899</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>-37,077</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>5,863</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>15,795,554</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>1,800,118</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>26,308,690</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>5,560,423</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>297,063</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>76,660</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>78,511</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>390,896</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-37,610</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>-288,908</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>355,704</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>4,470,230</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>193,462</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>6,348,222</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>27.05</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>898,994</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>366,643</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87,371</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>65,036</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>279,384</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-81,185</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-162,050</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>199,197</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2,918,233</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>6,445,298</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>12,033,959</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>759,456</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>212,597</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>21,487</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>124,316</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>111,212</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-122,883</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>190,884</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>5,227,490</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>6,777,356</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>10,090,379</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>317</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1,752,794</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>710,146</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>389,361</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>386,708</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>568,038</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-200,460</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-385,615</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>417,357</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>3,602,128</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>3,190,847</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>7,344,132</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>-540,013</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>19,407</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-5,412</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-84,857</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>-433,556</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>365,386</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>81,304</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>-832,845</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>1,206,068</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>-3.61</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>-1.77</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>1,243,216</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>3,517,843</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>-0.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>13,105,376</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2,747,194</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1,280,344</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1,021,900</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>1,393,002</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-627,392</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-649,278</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>715,455</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>12,973,143</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>11,480,185</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>25,396,738</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>270</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>14,010,374</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3,141,329</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>882,502</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1,033,324</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>-983,339</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>566,878</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>-791,554</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>-1,167,797</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>25,632,678</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>7,662,570</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>45,174,405</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>12,596,314</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3,102,880</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>780,017</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>761,037</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>920,744</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-84,714</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>555,974</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>715,829</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>29,528,996</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>14,738,703</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>82,771,667</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1,175,311</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>157,151</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>45,083</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>58,829</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>50,495</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>23,896</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>-101,053</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>42,749</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>1,989,879</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>1,002,060</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>4,721,505</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>39.85</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>5,270,362</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>990,596</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>254,514</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>284,641</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>338,637</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-357,813</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-203,842</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>145,509</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>12,609,020</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>5,816,651</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>34,163,313</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>246,402,791</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>9,755,703</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>4,340,210</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4,484,106</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>8,233,772</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-2,222,380</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>11,213,825</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>6,771,655</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>272,743,566</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>24,472,732</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>378,750,718</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>338</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>137,959,350</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>17,844,975</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>6,186,971</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4,555,430</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>18,366,562</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-455,491</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>-106,422</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>17,751,676</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>186,898,450</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>9,581,880</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>352,421,513</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>35,434,035</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3,849,940</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>588,613</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>860,060</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>13,716</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-894,644</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>-169,291</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>-408,168</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>74,485,667</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>19,892,498</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>105,520,130</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>211</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>9,182,597</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3,680,207</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1,295,554</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1,240,030</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>1,989,196</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>-2,121,487</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>-176,353</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>1,839,539</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>9,005,756</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>8,876,606</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>31,543,820</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>35.15</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>13,054,965</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1,971,138</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>223,304</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>496,760</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>1,756,086</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>498,111</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>4,859</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>1,715,897</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>11,114,512</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>4,231,520</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>33,692,626</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>231,632</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>99,701</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>58,732</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>54,598</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>84,685</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>181,630</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>84,685</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>359,608</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>4,797</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>1,106,815</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2,023,094</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>167,938</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>57,203</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>56,226</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>415,737</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>-6,553</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>-260,258</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>411,197</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>3,319,277</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>381,689</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>5,177,251</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>373,148</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>340,125</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>83,191</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>68,625</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>93,847</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-36,172</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>90,595</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>373,827</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>42,417</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>2,125,475</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
